--- a/biology/Botanique/Ouabaïne/Ouabaïne.xlsx
+++ b/biology/Botanique/Ouabaïne/Ouabaïne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ouaba%C3%AFne</t>
+          <t>Ouabaïne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’ouabaïne ou g-strophanthine est un hétéroside cardiotonique de formule brute C29H44O12 dont la partie sucrée est le L-rhamnose, un dérivé désoxyhexose du mannose. Il est l’une des formes naturelles de la strophantine, qui possèdent des propriétés similaires. Celle-ci est extraite à partir de l’ouabaio ou du Strophantus gratus, appartenant à la famille des apocynacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ouaba%C3%AFne</t>
+          <t>Ouabaïne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Extraction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À partir des espèces du genre Acokanthera, on découpe le bois en petit copeaux dont on libère les diverses substances présentes en plongeant ces copeaux dans de l'eau chaude. Le mélange est ensuite déféqué à l'acétate de plomb puis neutralisé à l'acide sulfurique. Une étape de filtration est réalisée ainsi qu'un traitement à l'alcool à chaud. On obtient donc des cristaux après évaporation.
 À partir du Strophantus gratus, les graines de l'arbre sont récupérées puis pulvérisées. Un épuisement à l'alcool est pratiqué, et on effectue une distillation sous vide afin d'éliminer celui-ci. Le résidu est ensuite mis dans de l'eau et l'évaporation des résidus dans l'eau donne des cristaux.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ouaba%C3%AFne</t>
+          <t>Ouabaïne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Propriétés diverses et action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un hétéroside cardiotonique, du fait de ses propriétés structurelles (7):
 Cycle lactonique insaturé sur le C17 en β
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ouaba%C3%AFne</t>
+          <t>Ouabaïne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On utilisait les graines du Strophantus dans la fabrication des flèches empoisonnées durant leurs période de chasse ou de pêche, ou bien pour se défendre (7).
 Actuellement, on utilise l'ouabaïne dans l'industrie pharmaceutique pour l'insuffisance cardiaque congestive accompagnée de fibrillation auriculaire. Cependant, celle-ci est très peu utilisé à cause de sa toxicité.
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ouaba%C3%AFne</t>
+          <t>Ouabaïne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +635,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>k-Strophanthine</t>
         </is>
